--- a/DBteam_project/Variables_Guideline.xlsx
+++ b/DBteam_project/Variables_Guideline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studying\DB\Crawling_01\DBteam_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B363F06-F727-4B5B-8338-C0FBD29310CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F09D6-8EF9-4986-ABE9-180801FB1F06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="585" windowWidth="17820" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="210" windowWidth="16815" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>1. 역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>부문별로 통일 부탁드립니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +144,22 @@
   </si>
   <si>
     <t>야식, 술집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 인스타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,10 +205,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,341 +501,410 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
+  <mergeCells count="59">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
